--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/San_Antonio_Spurs.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/San_Antonio_Spurs.xlsx
@@ -1816,7 +1816,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
